--- a/document/ProjectUsing/SqlDataTableNotes/支付紀錄表/交易紀錄表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/支付紀錄表/交易紀錄表設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\StudyNotes\SqlStudyNotes\SqlDataTableNotes\支付紀錄表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\ProjectUsing\SqlDataTableNotes\支付紀錄表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,35 +83,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>當前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默認為當前時間, 之後可以再改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>外鍵</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">f_created_at </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_order_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>transactions資料表(t_transactions)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_transaction_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -123,43 +99,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>decimail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_transaction_type </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex : 儲值, 付款, 退款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_status </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功, 失敗, 待處理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金額</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用order參照還是member參照</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要設計此帳號為可用還是不可用?</t>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex : 付款, 退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_transactionId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_transactionType </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>當訂單狀態 status 為4:買家取件成功, 則新增1筆交易紀錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>當訂單狀態status 為 12:退款完成, 則新增1筆交易紀錄</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -296,24 +268,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,12 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -683,18 +638,18 @@
     <col min="12" max="12" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -731,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -747,140 +702,65 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:F11"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -905,12 +785,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
